--- a/2022C/铅钡亚类划分结果.xlsx
+++ b/2022C/铅钡亚类划分结果.xlsx
@@ -753,7 +753,7 @@
         <v>81</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -883,7 +883,7 @@
         <v>81</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -948,7 +948,7 @@
         <v>81</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1013,7 +1013,7 @@
         <v>81</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1078,7 +1078,7 @@
         <v>82</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1338,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1598,7 +1598,7 @@
         <v>82</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1663,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1923,7 +1923,7 @@
         <v>81</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2053,7 +2053,7 @@
         <v>81</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2183,7 +2183,7 @@
         <v>81</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2248,7 +2248,7 @@
         <v>81</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2313,7 +2313,7 @@
         <v>81</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2378,7 +2378,7 @@
         <v>81</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2573,7 +2573,7 @@
         <v>81</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2638,7 +2638,7 @@
         <v>81</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3093,7 +3093,7 @@
         <v>81</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3158,7 +3158,7 @@
         <v>81</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3288,7 +3288,7 @@
         <v>81</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3353,7 +3353,7 @@
         <v>81</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3418,7 +3418,7 @@
         <v>81</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3548,7 +3548,7 @@
         <v>81</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3613,7 +3613,7 @@
         <v>81</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3743,7 +3743,7 @@
         <v>81</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3808,7 +3808,7 @@
         <v>81</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3873,7 +3873,7 @@
         <v>81</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2022C/铅钡亚类划分结果.xlsx
+++ b/2022C/铅钡亚类划分结果.xlsx
@@ -818,7 +818,7 @@
         <v>81</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -883,7 +883,7 @@
         <v>81</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -948,7 +948,7 @@
         <v>81</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1078,7 +1078,7 @@
         <v>82</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1208,7 +1208,7 @@
         <v>82</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1338,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1403,7 +1403,7 @@
         <v>81</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21">
